--- a/mbrMo_LP202009.xlsx
+++ b/mbrMo_LP202009.xlsx
@@ -13,77 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>org_id</t>
-  </si>
-  <si>
-    <t>period_id</t>
-  </si>
-  <si>
-    <t>measure_value_decimal</t>
-  </si>
-  <si>
-    <t>('A1052', 'm-2021-09', Decimal('6977.00'))</t>
-  </si>
-  <si>
-    <t>('A2251', 'm-2019-05', Decimal('41810.00'))</t>
-  </si>
-  <si>
-    <t>('A2575', 'm-2019-11', Decimal('59562.00'))</t>
-  </si>
-  <si>
-    <t>('A2841', 'm-2019-10', Decimal('14641.00'))</t>
-  </si>
-  <si>
-    <t>('A3229', 'm-2020-01', Decimal('61265.00'))</t>
-  </si>
-  <si>
-    <t>('A1052', 'm-2021-05', Decimal('6977.00'))</t>
-  </si>
-  <si>
-    <t>('A2251', 'm-2019-07', Decimal('41903.00'))</t>
-  </si>
-  <si>
-    <t>('A2575', 'm-2020-03', Decimal('63377.00'))</t>
-  </si>
-  <si>
-    <t>('A2841', 'm-2021-08', Decimal('15701.00'))</t>
-  </si>
-  <si>
-    <t>('A3229', 'm-2019-03', Decimal('58159.00'))</t>
-  </si>
-  <si>
-    <t>('A1052', 'm-2020-02', Decimal('7418.00'))</t>
-  </si>
-  <si>
-    <t>('A2251', 'm-2019-03', Decimal('40975.00'))</t>
-  </si>
-  <si>
-    <t>('A2575', 'm-2019-02', Decimal('60255.00'))</t>
-  </si>
-  <si>
-    <t>('A2841', 'm-2019-07', Decimal('14685.00'))</t>
-  </si>
-  <si>
-    <t>('A3229', 'm-2020-09', Decimal('58240.00'))</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -107,30 +40,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,94 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mbrMo_LP202009.xlsx
+++ b/mbrMo_LP202009.xlsx
@@ -13,10 +13,146 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="41">
+  <si>
+    <t>ORG_ID</t>
+  </si>
+  <si>
+    <t>PERIOD_ID</t>
+  </si>
+  <si>
+    <t>MEASURE_VALUE_DECIMAL</t>
+  </si>
+  <si>
+    <t>A1052</t>
+  </si>
+  <si>
+    <t>A2251</t>
+  </si>
+  <si>
+    <t>A2575</t>
+  </si>
+  <si>
+    <t>A2841</t>
+  </si>
+  <si>
+    <t>A3229</t>
+  </si>
+  <si>
+    <t>m-2021-09</t>
+  </si>
+  <si>
+    <t>m-2021-05</t>
+  </si>
+  <si>
+    <t>m-2020-02</t>
+  </si>
+  <si>
+    <t>m-2020-01</t>
+  </si>
+  <si>
+    <t>m-2019-10</t>
+  </si>
+  <si>
+    <t>m-2020-09</t>
+  </si>
+  <si>
+    <t>m-2019-09</t>
+  </si>
+  <si>
+    <t>m-2020-11</t>
+  </si>
+  <si>
+    <t>m-2021-04</t>
+  </si>
+  <si>
+    <t>m-2019-11</t>
+  </si>
+  <si>
+    <t>m-2021-03</t>
+  </si>
+  <si>
+    <t>m-2019-08</t>
+  </si>
+  <si>
+    <t>m-2020-10</t>
+  </si>
+  <si>
+    <t>m-2021-01</t>
+  </si>
+  <si>
+    <t>m-2021-02</t>
+  </si>
+  <si>
+    <t>m-2021-08</t>
+  </si>
+  <si>
+    <t>m-2019-06</t>
+  </si>
+  <si>
+    <t>m-2020-07</t>
+  </si>
+  <si>
+    <t>m-2019-01</t>
+  </si>
+  <si>
+    <t>m-2020-05</t>
+  </si>
+  <si>
+    <t>m-2020-08</t>
+  </si>
+  <si>
+    <t>m-2019-05</t>
+  </si>
+  <si>
+    <t>m-2019-02</t>
+  </si>
+  <si>
+    <t>m-2021-07</t>
+  </si>
+  <si>
+    <t>m-2020-06</t>
+  </si>
+  <si>
+    <t>m-2020-03</t>
+  </si>
+  <si>
+    <t>m-2019-04</t>
+  </si>
+  <si>
+    <t>m-2019-07</t>
+  </si>
+  <si>
+    <t>m-2019-12</t>
+  </si>
+  <si>
+    <t>m-2021-06</t>
+  </si>
+  <si>
+    <t>m-2020-12</t>
+  </si>
+  <si>
+    <t>m-2020-04</t>
+  </si>
+  <si>
+    <t>m-2019-03</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +176,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +494,2334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>7418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>7418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>7302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>7806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>7302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>7093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>7806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>7093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>7093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>6967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>6967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>7418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>7806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>7302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33">
+        <v>6967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>41810</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>41903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <v>40975</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>43742</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>52918</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42">
+        <v>52862</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>41852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>52918</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>41868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>51739</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <v>52120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>51739</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>52072</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52">
+        <v>41056</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53">
+        <v>41761</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54">
+        <v>52364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55">
+        <v>51548</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56">
+        <v>52421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57">
+        <v>52421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58">
+        <v>52120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <v>41903</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>43881</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>41056</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63">
+        <v>41810</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>41852</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>41755</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>32</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68">
+        <v>59562</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69">
+        <v>63377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>60255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>59562</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>59822</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75">
+        <v>59675</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76">
+        <v>59708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79">
+        <v>59822</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80">
+        <v>59976</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81">
+        <v>59822</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>59676</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83">
+        <v>60093</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>59676</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86">
+        <v>60255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>63377</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>63377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89">
+        <v>59976</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>22</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91">
+        <v>60255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>26</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94">
+        <v>60093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>27</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95">
+        <v>60093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>28</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96">
+        <v>59976</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>29</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97">
+        <v>59562</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>30</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98">
+        <v>59708</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>31</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>32</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100">
+        <v>59708</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>14641</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102">
+        <v>15701</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103">
+        <v>14685</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104">
+        <v>15729</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105">
+        <v>14685</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106">
+        <v>15854</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107">
+        <v>17033</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108">
+        <v>15663</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109">
+        <v>14641</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110">
+        <v>17627</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111">
+        <v>14149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>17033</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>12</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113">
+        <v>15790</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114">
+        <v>14149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115">
+        <v>15729</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>15</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116">
+        <v>14641</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117">
+        <v>15663</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118">
+        <v>17589</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119">
+        <v>17572</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120">
+        <v>17627</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121">
+        <v>15790</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122">
+        <v>15663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>22</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123">
+        <v>15729</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>23</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124">
+        <v>17589</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>24</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125">
+        <v>17033</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126">
+        <v>14685</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>26</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127">
+        <v>15854</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>27</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128">
+        <v>14149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>28</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>31</v>
+      </c>
+      <c r="D129">
+        <v>15701</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>29</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130">
+        <v>17549</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>30</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>15701</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>31</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132">
+        <v>15790</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>32</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133">
+        <v>15854</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134">
+        <v>61265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135">
+        <v>58159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136">
+        <v>58240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137">
+        <v>68283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138">
+        <v>54608</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139">
+        <v>54793</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140">
+        <v>58159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141">
+        <v>68283</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142">
+        <v>59071</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>38</v>
+      </c>
+      <c r="D143">
+        <v>58152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144">
+        <v>59073</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145">
+        <v>61265</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>32</v>
+      </c>
+      <c r="D146">
+        <v>58421</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>13</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147">
+        <v>54608</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148">
+        <v>54793</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>15</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>37</v>
+      </c>
+      <c r="D149">
+        <v>68283</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>16</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150">
+        <v>58240</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>17</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151">
+        <v>66880</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>18</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152">
+        <v>58421</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>19</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153">
+        <v>68283</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>20</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154">
+        <v>58240</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>21</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155">
+        <v>58155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>22</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156">
+        <v>59071</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>23</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>29</v>
+      </c>
+      <c r="D157">
+        <v>54793</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>24</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158">
+        <v>66731</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>25</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>35</v>
+      </c>
+      <c r="D159">
+        <v>54608</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>26</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>31</v>
+      </c>
+      <c r="D160">
+        <v>68283</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>27</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>61265</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>28</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162">
+        <v>68283</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>29</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163">
+        <v>66801</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>30</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>39</v>
+      </c>
+      <c r="D164">
+        <v>58421</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>31</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165">
+        <v>58155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>32</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166">
+        <v>58155</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mbrMo_LP202009.xlsx
+++ b/mbrMo_LP202009.xlsx
@@ -40,103 +40,103 @@
     <t>A3229</t>
   </si>
   <si>
+    <t>m-2019-01</t>
+  </si>
+  <si>
+    <t>m-2019-02</t>
+  </si>
+  <si>
+    <t>m-2019-03</t>
+  </si>
+  <si>
+    <t>m-2019-04</t>
+  </si>
+  <si>
+    <t>m-2019-05</t>
+  </si>
+  <si>
+    <t>m-2019-06</t>
+  </si>
+  <si>
+    <t>m-2019-07</t>
+  </si>
+  <si>
+    <t>m-2019-08</t>
+  </si>
+  <si>
+    <t>m-2019-09</t>
+  </si>
+  <si>
+    <t>m-2019-10</t>
+  </si>
+  <si>
+    <t>m-2019-11</t>
+  </si>
+  <si>
+    <t>m-2019-12</t>
+  </si>
+  <si>
+    <t>m-2020-01</t>
+  </si>
+  <si>
+    <t>m-2020-02</t>
+  </si>
+  <si>
+    <t>m-2020-03</t>
+  </si>
+  <si>
+    <t>m-2020-04</t>
+  </si>
+  <si>
+    <t>m-2020-05</t>
+  </si>
+  <si>
+    <t>m-2020-06</t>
+  </si>
+  <si>
+    <t>m-2020-07</t>
+  </si>
+  <si>
+    <t>m-2020-08</t>
+  </si>
+  <si>
+    <t>m-2020-09</t>
+  </si>
+  <si>
+    <t>m-2020-10</t>
+  </si>
+  <si>
+    <t>m-2020-11</t>
+  </si>
+  <si>
+    <t>m-2020-12</t>
+  </si>
+  <si>
+    <t>m-2021-01</t>
+  </si>
+  <si>
+    <t>m-2021-02</t>
+  </si>
+  <si>
+    <t>m-2021-03</t>
+  </si>
+  <si>
+    <t>m-2021-04</t>
+  </si>
+  <si>
+    <t>m-2021-05</t>
+  </si>
+  <si>
+    <t>m-2021-06</t>
+  </si>
+  <si>
+    <t>m-2021-07</t>
+  </si>
+  <si>
+    <t>m-2021-08</t>
+  </si>
+  <si>
     <t>m-2021-09</t>
-  </si>
-  <si>
-    <t>m-2021-05</t>
-  </si>
-  <si>
-    <t>m-2020-02</t>
-  </si>
-  <si>
-    <t>m-2020-01</t>
-  </si>
-  <si>
-    <t>m-2019-10</t>
-  </si>
-  <si>
-    <t>m-2020-09</t>
-  </si>
-  <si>
-    <t>m-2019-09</t>
-  </si>
-  <si>
-    <t>m-2020-11</t>
-  </si>
-  <si>
-    <t>m-2021-04</t>
-  </si>
-  <si>
-    <t>m-2019-11</t>
-  </si>
-  <si>
-    <t>m-2021-03</t>
-  </si>
-  <si>
-    <t>m-2019-08</t>
-  </si>
-  <si>
-    <t>m-2020-10</t>
-  </si>
-  <si>
-    <t>m-2021-01</t>
-  </si>
-  <si>
-    <t>m-2021-02</t>
-  </si>
-  <si>
-    <t>m-2021-08</t>
-  </si>
-  <si>
-    <t>m-2019-06</t>
-  </si>
-  <si>
-    <t>m-2020-07</t>
-  </si>
-  <si>
-    <t>m-2019-01</t>
-  </si>
-  <si>
-    <t>m-2020-05</t>
-  </si>
-  <si>
-    <t>m-2020-08</t>
-  </si>
-  <si>
-    <t>m-2019-05</t>
-  </si>
-  <si>
-    <t>m-2019-02</t>
-  </si>
-  <si>
-    <t>m-2021-07</t>
-  </si>
-  <si>
-    <t>m-2020-06</t>
-  </si>
-  <si>
-    <t>m-2020-03</t>
-  </si>
-  <si>
-    <t>m-2019-04</t>
-  </si>
-  <si>
-    <t>m-2019-07</t>
-  </si>
-  <si>
-    <t>m-2019-12</t>
-  </si>
-  <si>
-    <t>m-2021-06</t>
-  </si>
-  <si>
-    <t>m-2020-12</t>
-  </si>
-  <si>
-    <t>m-2020-04</t>
-  </si>
-  <si>
-    <t>m-2019-03</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>6977</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -536,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>6977</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -550,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>7418</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -564,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>7418</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>7302</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -592,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>6911</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -620,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="D9">
-        <v>6885</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -634,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <v>6977</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -662,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>7093</v>
+        <v>7302</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>7806</v>
+        <v>7302</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -690,7 +690,7 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <v>6885</v>
+        <v>7418</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -704,7 +704,7 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>7093</v>
+        <v>7418</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -718,7 +718,7 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>7093</v>
+        <v>7418</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -732,7 +732,7 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>6977</v>
+        <v>6967</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -746,7 +746,7 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>7408</v>
+        <v>6967</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -760,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="D19">
-        <v>6911</v>
+        <v>6967</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -774,7 +774,7 @@
         <v>26</v>
       </c>
       <c r="D20">
-        <v>7408</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -788,7 +788,7 @@
         <v>27</v>
       </c>
       <c r="D21">
-        <v>6967</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -816,7 +816,7 @@
         <v>29</v>
       </c>
       <c r="D23">
-        <v>7408</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -830,7 +830,7 @@
         <v>30</v>
       </c>
       <c r="D24">
-        <v>7408</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -844,7 +844,7 @@
         <v>31</v>
       </c>
       <c r="D25">
-        <v>6977</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -858,7 +858,7 @@
         <v>32</v>
       </c>
       <c r="D26">
-        <v>6967</v>
+        <v>7093</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -872,7 +872,7 @@
         <v>33</v>
       </c>
       <c r="D27">
-        <v>7418</v>
+        <v>7093</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -886,7 +886,7 @@
         <v>34</v>
       </c>
       <c r="D28">
-        <v>7408</v>
+        <v>7093</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -900,7 +900,7 @@
         <v>35</v>
       </c>
       <c r="D29">
-        <v>7806</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -914,7 +914,7 @@
         <v>36</v>
       </c>
       <c r="D30">
-        <v>7302</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -942,7 +942,7 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>6885</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="D33">
-        <v>6967</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -970,46 +970,46 @@
         <v>40</v>
       </c>
       <c r="D34">
-        <v>7408</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>41810</v>
+        <v>41056</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>41903</v>
+        <v>41056</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>40975</v>
@@ -1017,405 +1017,405 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>43742</v>
+        <v>41810</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>44292</v>
+        <v>41810</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>43542</v>
+        <v>41755</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>52918</v>
+        <v>41903</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>52862</v>
+        <v>41903</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>41852</v>
+        <v>41868</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>52918</v>
+        <v>41852</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>44292</v>
+        <v>41852</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>43672</v>
+        <v>41761</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>41868</v>
+        <v>52918</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>51739</v>
+        <v>52918</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>52120</v>
+        <v>52862</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D50">
-        <v>51739</v>
+        <v>52421</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>52072</v>
+        <v>52421</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>41056</v>
+        <v>52364</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D53">
-        <v>41761</v>
+        <v>52120</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D54">
-        <v>52364</v>
+        <v>52120</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D55">
-        <v>51548</v>
+        <v>52072</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D56">
-        <v>52421</v>
+        <v>51739</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D57">
-        <v>52421</v>
+        <v>51739</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D58">
-        <v>52120</v>
+        <v>51548</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D59">
-        <v>41903</v>
+        <v>43542</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D60">
-        <v>43881</v>
+        <v>43542</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D61">
-        <v>41056</v>
+        <v>43448</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D62">
-        <v>43542</v>
+        <v>44292</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D63">
-        <v>41810</v>
+        <v>44292</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D64">
-        <v>41852</v>
+        <v>43672</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D65">
-        <v>41755</v>
+        <v>43742</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D66">
         <v>43879</v>
@@ -1423,55 +1423,55 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D67">
-        <v>43448</v>
+        <v>43881</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D68">
-        <v>59562</v>
+        <v>60255</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D69">
-        <v>63377</v>
+        <v>60255</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D70">
         <v>60255</v>
@@ -1479,21 +1479,21 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D71">
-        <v>45677</v>
+        <v>59976</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -1502,60 +1502,60 @@
         <v>12</v>
       </c>
       <c r="D72">
-        <v>59562</v>
+        <v>59976</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D73">
-        <v>45368</v>
+        <v>59976</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74">
-        <v>59822</v>
+        <v>59708</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D75">
-        <v>59675</v>
+        <v>59708</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D76">
         <v>59708</v>
@@ -1563,97 +1563,97 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>45677</v>
+        <v>59562</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D78">
-        <v>45368</v>
+        <v>59562</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D79">
-        <v>59822</v>
+        <v>59562</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D80">
-        <v>59976</v>
+        <v>63377</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D81">
-        <v>59822</v>
+        <v>63377</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D82">
-        <v>59676</v>
+        <v>63377</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D83">
         <v>60093</v>
@@ -1661,139 +1661,139 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D84">
-        <v>45368</v>
+        <v>60093</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D85">
-        <v>59676</v>
+        <v>60093</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D86">
-        <v>60255</v>
+        <v>59822</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D87">
-        <v>63377</v>
+        <v>59822</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D88">
-        <v>63377</v>
+        <v>59822</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D89">
-        <v>59976</v>
+        <v>59676</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D90">
-        <v>45368</v>
+        <v>59676</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D91">
-        <v>60255</v>
+        <v>59675</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D92">
-        <v>45368</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D93">
         <v>45677</v>
@@ -1801,83 +1801,83 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D94">
-        <v>60093</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D95">
-        <v>60093</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D96">
-        <v>59976</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D97">
-        <v>59562</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D98">
-        <v>59708</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D99">
         <v>45368</v>
@@ -1885,119 +1885,119 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D100">
-        <v>59708</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D101">
-        <v>14641</v>
+        <v>17627</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D102">
-        <v>15701</v>
+        <v>17627</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>14685</v>
+        <v>17572</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <v>15729</v>
+        <v>17589</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D105">
-        <v>14685</v>
+        <v>17589</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D106">
-        <v>15854</v>
+        <v>17549</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D107">
-        <v>17033</v>
+        <v>14685</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -2006,200 +2006,200 @@
         <v>15</v>
       </c>
       <c r="D108">
-        <v>15663</v>
+        <v>14685</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D109">
-        <v>14641</v>
+        <v>14685</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D110">
-        <v>17627</v>
+        <v>14641</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D111">
-        <v>14149</v>
+        <v>14641</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D112">
-        <v>17033</v>
+        <v>14641</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D113">
-        <v>15790</v>
+        <v>17033</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D114">
-        <v>14149</v>
+        <v>17033</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D115">
-        <v>15729</v>
+        <v>17033</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D116">
-        <v>14641</v>
+        <v>15854</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D117">
-        <v>15663</v>
+        <v>15854</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D118">
-        <v>17589</v>
+        <v>15854</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D119">
-        <v>17572</v>
+        <v>15729</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D120">
-        <v>17627</v>
+        <v>15729</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D121">
-        <v>15790</v>
+        <v>15729</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D122">
         <v>15663</v>
@@ -2207,125 +2207,125 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D123">
-        <v>15729</v>
+        <v>15663</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D124">
-        <v>17589</v>
+        <v>15663</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D125">
-        <v>17033</v>
+        <v>14149</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D126">
-        <v>14685</v>
+        <v>14149</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D127">
-        <v>15854</v>
+        <v>14149</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D128">
-        <v>14149</v>
+        <v>15790</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D129">
-        <v>15701</v>
+        <v>15790</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D130">
-        <v>17549</v>
+        <v>15790</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D131">
         <v>15701</v>
@@ -2333,55 +2333,55 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D132">
-        <v>15790</v>
+        <v>15701</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D133">
-        <v>15854</v>
+        <v>15701</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D134">
-        <v>61265</v>
+        <v>58155</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D135">
         <v>58159</v>
@@ -2389,55 +2389,55 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D136">
-        <v>58240</v>
+        <v>58159</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D137">
-        <v>68283</v>
+        <v>54793</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D138">
-        <v>54608</v>
+        <v>54793</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D139">
         <v>54793</v>
@@ -2445,203 +2445,203 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D140">
-        <v>58159</v>
+        <v>54608</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141">
-        <v>68283</v>
+        <v>54608</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142">
-        <v>59071</v>
+        <v>54608</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D143">
-        <v>58152</v>
+        <v>59071</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D144">
-        <v>59073</v>
+        <v>59071</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D145">
-        <v>61265</v>
+        <v>59073</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D146">
-        <v>58421</v>
+        <v>61265</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D147">
-        <v>54608</v>
+        <v>61265</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D148">
-        <v>54793</v>
+        <v>61265</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D149">
-        <v>68283</v>
+        <v>58421</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D150">
-        <v>58240</v>
+        <v>58421</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D151">
-        <v>66880</v>
+        <v>58421</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D152">
-        <v>58421</v>
+        <v>58240</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D153">
-        <v>68283</v>
+        <v>58240</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
@@ -2655,13 +2655,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D155">
         <v>58155</v>
@@ -2669,41 +2669,41 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D156">
-        <v>59071</v>
+        <v>58155</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D157">
-        <v>54793</v>
+        <v>58152</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D158">
         <v>66731</v>
@@ -2711,55 +2711,55 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D159">
-        <v>54608</v>
+        <v>66801</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D160">
-        <v>68283</v>
+        <v>66880</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D161">
-        <v>61265</v>
+        <v>68283</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D162">
         <v>68283</v>
@@ -2767,58 +2767,58 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D163">
-        <v>66801</v>
+        <v>68283</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D164">
-        <v>58421</v>
+        <v>68283</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D165">
-        <v>58155</v>
+        <v>68283</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D166">
-        <v>58155</v>
+        <v>68283</v>
       </c>
     </row>
   </sheetData>

--- a/mbrMo_LP202009.xlsx
+++ b/mbrMo_LP202009.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Member Months" sheetId="1" r:id="rId1"/>
+    <sheet name="PMPY" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="41">
   <si>
     <t>ORG_ID</t>
   </si>
@@ -2824,4 +2825,2338 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D166"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>9096.879999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>9556.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>11448.87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>10736.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>11519.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>10373.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>10563.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>11734.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>9550.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>9165.309999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>8822.790000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>8618.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>9355.879999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>9633.309999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>8084.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>7347.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>8075.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>9530.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>9689.93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>10511.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>9668.309999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>10227.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>9217.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>9943.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>11253.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>9965.76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>10500.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>10829.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>10847.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31">
+        <v>11108.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>9320.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33">
+        <v>3248.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>10268.21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>10296.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>11444.62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>10959.61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>11526.19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>10697.58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>10422.18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>10523.13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>10484.73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>11448.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>10269.38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>10397.93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>10369.33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>10787.96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>9714.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>7547.91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>8500.84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52">
+        <v>9812.129999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>10756.58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54">
+        <v>10140.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55">
+        <v>10644.44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>11052.66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>10176.43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58">
+        <v>11325.78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59">
+        <v>9636.959999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60">
+        <v>9856.139999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61">
+        <v>11160.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62">
+        <v>11220.63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63">
+        <v>10204.17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64">
+        <v>10629.32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65">
+        <v>10375.57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66">
+        <v>3945.12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>9974.889999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>9814.07</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>10501.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>10618.09</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>10879.79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>9839.99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>10451.65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>10832.83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76">
+        <v>9863.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77">
+        <v>11359.43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>8873.66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>9740.280000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>9745.940000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81">
+        <v>9761.18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82">
+        <v>8889.99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83">
+        <v>7191.06</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84">
+        <v>8949.32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85">
+        <v>10336.11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86">
+        <v>10647.61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87">
+        <v>10384.76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88">
+        <v>10808.88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89">
+        <v>11084.52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90">
+        <v>9954.450000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91">
+        <v>11278.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92">
+        <v>10761.24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93">
+        <v>10199.69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94">
+        <v>11838.54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95">
+        <v>10851.44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96">
+        <v>10560.98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97">
+        <v>10544.63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98">
+        <v>10087.58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99">
+        <v>3450.28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101">
+        <v>9639.950000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102">
+        <v>9086.24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>10350.44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104">
+        <v>9890.639999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105">
+        <v>10325.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106">
+        <v>9184.459999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107">
+        <v>10251.51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108">
+        <v>9967.85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109">
+        <v>9551.83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110">
+        <v>11592.44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111">
+        <v>8144.12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112">
+        <v>8950.879999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>9282.690000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114">
+        <v>9406.33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115">
+        <v>9149.030000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116">
+        <v>7108.56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117">
+        <v>8214.85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118">
+        <v>9723.549999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119">
+        <v>10197.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120">
+        <v>11200.45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121">
+        <v>10416.03</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122">
+        <v>10184.84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123">
+        <v>9475.719999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>31</v>
+      </c>
+      <c r="D124">
+        <v>9804.459999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125">
+        <v>9462.629999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126">
+        <v>10449.02</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127">
+        <v>11729.48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>35</v>
+      </c>
+      <c r="D128">
+        <v>9652.129999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129">
+        <v>9320.99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130">
+        <v>9459.65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131">
+        <v>8385.07</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>39</v>
+      </c>
+      <c r="D132">
+        <v>3113.14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134">
+        <v>9498.379999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135">
+        <v>9221.360000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>9984.35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137">
+        <v>10800.07</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138">
+        <v>11107.24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139">
+        <v>10092.61</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140">
+        <v>10318.29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141">
+        <v>10929.84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142">
+        <v>10314.17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143">
+        <v>10069.49</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144">
+        <v>9185.540000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145">
+        <v>9435.389999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146">
+        <v>9746.98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147">
+        <v>9915.190000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148">
+        <v>8843.799999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149">
+        <v>6761.72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150">
+        <v>8844</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151">
+        <v>10347.62</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152">
+        <v>9868.290000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153">
+        <v>9968.440000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154">
+        <v>10357.96</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>29</v>
+      </c>
+      <c r="D155">
+        <v>10966.09</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>30</v>
+      </c>
+      <c r="D156">
+        <v>10034.55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>31</v>
+      </c>
+      <c r="D157">
+        <v>11160.11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>32</v>
+      </c>
+      <c r="D158">
+        <v>9252.01</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>33</v>
+      </c>
+      <c r="D159">
+        <v>9808.629999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160">
+        <v>10732.87</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>35</v>
+      </c>
+      <c r="D161">
+        <v>10515.44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>36</v>
+      </c>
+      <c r="D162">
+        <v>10167.89</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>37</v>
+      </c>
+      <c r="D163">
+        <v>10179.32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>38</v>
+      </c>
+      <c r="D164">
+        <v>9020.91</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165">
+        <v>3959.67</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166">
+        <v>4.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mbrMo_LP202009.xlsx
+++ b/mbrMo_LP202009.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="46">
   <si>
     <t>ORG_ID</t>
   </si>
@@ -29,9 +29,6 @@
     <t>A1052</t>
   </si>
   <si>
-    <t>A2251</t>
-  </si>
-  <si>
     <t>A2575</t>
   </si>
   <si>
@@ -39,6 +36,24 @@
   </si>
   <si>
     <t>A3229</t>
+  </si>
+  <si>
+    <t>A3327</t>
+  </si>
+  <si>
+    <t>A3599</t>
+  </si>
+  <si>
+    <t>A3632</t>
+  </si>
+  <si>
+    <t>A3822</t>
+  </si>
+  <si>
+    <t>A4709</t>
+  </si>
+  <si>
+    <t>A4806</t>
   </si>
   <si>
     <t>m-2019-01</t>
@@ -495,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>7408</v>
@@ -534,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>7408</v>
@@ -548,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>7408</v>
@@ -562,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>7408</v>
@@ -576,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>7408</v>
@@ -590,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>7408</v>
@@ -604,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>7806</v>
@@ -618,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>7806</v>
@@ -632,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>7806</v>
@@ -646,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>7302</v>
@@ -660,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>7302</v>
@@ -674,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>7302</v>
@@ -688,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>7418</v>
@@ -702,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>7418</v>
@@ -716,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>7418</v>
@@ -730,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>6967</v>
@@ -744,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>6967</v>
@@ -758,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>6967</v>
@@ -772,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>6911</v>
@@ -786,7 +801,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>6911</v>
@@ -800,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>6911</v>
@@ -814,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>6885</v>
@@ -828,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>6885</v>
@@ -842,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>6885</v>
@@ -856,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <v>7093</v>
@@ -870,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>7093</v>
@@ -884,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>7093</v>
@@ -898,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>6977</v>
@@ -912,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D30">
         <v>6977</v>
@@ -926,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D31">
         <v>6977</v>
@@ -940,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>6977</v>
@@ -954,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D33">
         <v>6977</v>
@@ -968,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D34">
         <v>6977</v>
@@ -982,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>41056</v>
+        <v>60255</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -996,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>41056</v>
+        <v>60255</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1010,10 +1025,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>40975</v>
+        <v>60255</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1024,10 +1039,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>41810</v>
+        <v>59976</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1038,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>41810</v>
+        <v>59976</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1052,10 +1067,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>41755</v>
+        <v>59976</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1066,10 +1081,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D41">
-        <v>41903</v>
+        <v>59708</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1080,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>41903</v>
+        <v>59708</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1094,10 +1109,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>41868</v>
+        <v>59708</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1108,10 +1123,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>41852</v>
+        <v>59562</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1122,10 +1137,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>41852</v>
+        <v>59562</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1136,10 +1151,10 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>41761</v>
+        <v>59562</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1150,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D47">
-        <v>52918</v>
+        <v>63377</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1164,10 +1179,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>52918</v>
+        <v>63377</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1178,10 +1193,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D49">
-        <v>52862</v>
+        <v>63377</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1192,10 +1207,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D50">
-        <v>52421</v>
+        <v>60093</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1206,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D51">
-        <v>52421</v>
+        <v>60093</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1220,10 +1235,10 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D52">
-        <v>52364</v>
+        <v>60093</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1234,10 +1249,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D53">
-        <v>52120</v>
+        <v>59822</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1248,10 +1263,10 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D54">
-        <v>52120</v>
+        <v>59822</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1262,10 +1277,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D55">
-        <v>52072</v>
+        <v>59822</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1276,10 +1291,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D56">
-        <v>51739</v>
+        <v>59676</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1290,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D57">
-        <v>51739</v>
+        <v>59676</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1304,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D58">
-        <v>51548</v>
+        <v>59675</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1318,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D59">
-        <v>43542</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1332,10 +1347,10 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D60">
-        <v>43542</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1346,10 +1361,10 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D61">
-        <v>43448</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1360,10 +1375,10 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D62">
-        <v>44292</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1374,10 +1389,10 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D63">
-        <v>44292</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1388,10 +1403,10 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D64">
-        <v>43672</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1402,10 +1417,10 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D65">
-        <v>43742</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1416,10 +1431,10 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D66">
-        <v>43879</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1430,10 +1445,10 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D67">
-        <v>43881</v>
+        <v>45368</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1444,10 +1459,10 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>60255</v>
+        <v>17627</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1458,10 +1473,10 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69">
-        <v>60255</v>
+        <v>17627</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1472,10 +1487,10 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>60255</v>
+        <v>17572</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1486,10 +1501,10 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>59976</v>
+        <v>17589</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1500,10 +1515,10 @@
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D72">
-        <v>59976</v>
+        <v>17589</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1514,10 +1529,10 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D73">
-        <v>59976</v>
+        <v>17549</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1528,10 +1543,10 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D74">
-        <v>59708</v>
+        <v>14685</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1542,10 +1557,10 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D75">
-        <v>59708</v>
+        <v>14685</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1556,10 +1571,10 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D76">
-        <v>59708</v>
+        <v>14685</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1570,10 +1585,10 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D77">
-        <v>59562</v>
+        <v>14641</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1584,10 +1599,10 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D78">
-        <v>59562</v>
+        <v>14641</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1598,10 +1613,10 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D79">
-        <v>59562</v>
+        <v>14641</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1612,10 +1627,10 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D80">
-        <v>63377</v>
+        <v>17033</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1626,10 +1641,10 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D81">
-        <v>63377</v>
+        <v>17033</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1640,10 +1655,10 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D82">
-        <v>63377</v>
+        <v>17033</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1654,10 +1669,10 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D83">
-        <v>60093</v>
+        <v>15854</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1668,10 +1683,10 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D84">
-        <v>60093</v>
+        <v>15854</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1682,10 +1697,10 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D85">
-        <v>60093</v>
+        <v>15854</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1696,10 +1711,10 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D86">
-        <v>59822</v>
+        <v>15729</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1710,10 +1725,10 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D87">
-        <v>59822</v>
+        <v>15729</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1724,10 +1739,10 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D88">
-        <v>59822</v>
+        <v>15729</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1738,10 +1753,10 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D89">
-        <v>59676</v>
+        <v>15663</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1752,10 +1767,10 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D90">
-        <v>59676</v>
+        <v>15663</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1766,10 +1781,10 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D91">
-        <v>59675</v>
+        <v>15663</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1780,10 +1795,10 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D92">
-        <v>45677</v>
+        <v>14149</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1794,10 +1809,10 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D93">
-        <v>45677</v>
+        <v>14149</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1808,10 +1823,10 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D94">
-        <v>45677</v>
+        <v>14149</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1822,10 +1837,10 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D95">
-        <v>45368</v>
+        <v>15790</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1836,10 +1851,10 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D96">
-        <v>45368</v>
+        <v>15790</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1850,10 +1865,10 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D97">
-        <v>45368</v>
+        <v>15790</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1864,10 +1879,10 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D98">
-        <v>45368</v>
+        <v>15701</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1878,10 +1893,10 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D99">
-        <v>45368</v>
+        <v>15701</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1892,10 +1907,10 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D100">
-        <v>45368</v>
+        <v>15701</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1906,10 +1921,10 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D101">
-        <v>17627</v>
+        <v>58155</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1920,10 +1935,10 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D102">
-        <v>17627</v>
+        <v>58159</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1934,10 +1949,10 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D103">
-        <v>17572</v>
+        <v>58159</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1948,10 +1963,10 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D104">
-        <v>17589</v>
+        <v>54793</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1962,10 +1977,10 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D105">
-        <v>17589</v>
+        <v>54793</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1976,10 +1991,10 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D106">
-        <v>17549</v>
+        <v>54793</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1990,10 +2005,10 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D107">
-        <v>14685</v>
+        <v>54608</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2004,10 +2019,10 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D108">
-        <v>14685</v>
+        <v>54608</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2018,10 +2033,10 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D109">
-        <v>14685</v>
+        <v>54608</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2032,10 +2047,10 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D110">
-        <v>14641</v>
+        <v>59071</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2046,10 +2061,10 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D111">
-        <v>14641</v>
+        <v>59071</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2060,10 +2075,10 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D112">
-        <v>14641</v>
+        <v>59073</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2074,10 +2089,10 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D113">
-        <v>17033</v>
+        <v>61265</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2088,10 +2103,10 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D114">
-        <v>17033</v>
+        <v>61265</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2102,10 +2117,10 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D115">
-        <v>17033</v>
+        <v>61265</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2116,10 +2131,10 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D116">
-        <v>15854</v>
+        <v>58421</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2130,10 +2145,10 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D117">
-        <v>15854</v>
+        <v>58421</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2144,10 +2159,10 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D118">
-        <v>15854</v>
+        <v>58421</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2158,10 +2173,10 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D119">
-        <v>15729</v>
+        <v>58240</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2172,10 +2187,10 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D120">
-        <v>15729</v>
+        <v>58240</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2186,10 +2201,10 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D121">
-        <v>15729</v>
+        <v>58240</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2200,10 +2215,10 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D122">
-        <v>15663</v>
+        <v>58155</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2214,10 +2229,10 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D123">
-        <v>15663</v>
+        <v>58155</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2228,10 +2243,10 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D124">
-        <v>15663</v>
+        <v>58152</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2242,10 +2257,10 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D125">
-        <v>14149</v>
+        <v>66731</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2256,10 +2271,10 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D126">
-        <v>14149</v>
+        <v>66801</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2270,10 +2285,10 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D127">
-        <v>14149</v>
+        <v>66880</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2284,10 +2299,10 @@
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D128">
-        <v>15790</v>
+        <v>68283</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2298,10 +2313,10 @@
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D129">
-        <v>15790</v>
+        <v>68283</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2312,10 +2327,10 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D130">
-        <v>15790</v>
+        <v>68283</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2326,10 +2341,10 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D131">
-        <v>15701</v>
+        <v>68283</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2340,10 +2355,10 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D132">
-        <v>15701</v>
+        <v>68283</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2354,10 +2369,10 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D133">
-        <v>15701</v>
+        <v>68283</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2368,10 +2383,10 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D134">
-        <v>58155</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2382,10 +2397,10 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D135">
-        <v>58159</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2396,10 +2411,10 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D136">
-        <v>58159</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2410,10 +2425,10 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>54793</v>
+        <v>6718</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2424,10 +2439,10 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D138">
-        <v>54793</v>
+        <v>6718</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2438,10 +2453,10 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D139">
-        <v>54793</v>
+        <v>6694</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2452,10 +2467,10 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D140">
-        <v>54608</v>
+        <v>47572</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2466,10 +2481,10 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D141">
-        <v>54608</v>
+        <v>47572</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2480,10 +2495,10 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D142">
-        <v>54608</v>
+        <v>47572</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2494,10 +2509,10 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D143">
-        <v>59071</v>
+        <v>47435</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2508,10 +2523,10 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D144">
-        <v>59071</v>
+        <v>47435</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2522,10 +2537,10 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D145">
-        <v>59073</v>
+        <v>47435</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2536,10 +2551,10 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D146">
-        <v>61265</v>
+        <v>51380</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2550,10 +2565,10 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D147">
-        <v>61265</v>
+        <v>51380</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2564,10 +2579,10 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D148">
-        <v>61265</v>
+        <v>51380</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2578,10 +2593,10 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D149">
-        <v>58421</v>
+        <v>49666</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2592,10 +2607,10 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D150">
-        <v>58421</v>
+        <v>49666</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2606,10 +2621,10 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D151">
-        <v>58421</v>
+        <v>49665</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2620,10 +2635,10 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D152">
-        <v>58240</v>
+        <v>49441</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2634,10 +2649,10 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D153">
-        <v>58240</v>
+        <v>49441</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2648,10 +2663,10 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D154">
-        <v>58240</v>
+        <v>49441</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2662,10 +2677,10 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D155">
-        <v>58155</v>
+        <v>49290</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2676,10 +2691,10 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D156">
-        <v>58155</v>
+        <v>49290</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2690,10 +2705,10 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D157">
-        <v>58152</v>
+        <v>49289</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2704,10 +2719,10 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D158">
-        <v>66731</v>
+        <v>47528</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2718,10 +2733,10 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D159">
-        <v>66801</v>
+        <v>47528</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2732,10 +2747,10 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D160">
-        <v>66880</v>
+        <v>47528</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2746,10 +2761,10 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D161">
-        <v>68283</v>
+        <v>47229</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2760,10 +2775,10 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D162">
-        <v>68283</v>
+        <v>47229</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2774,10 +2789,10 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D163">
-        <v>68283</v>
+        <v>47229</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2788,10 +2803,10 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D164">
-        <v>68283</v>
+        <v>47229</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2802,10 +2817,10 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D165">
-        <v>68283</v>
+        <v>47229</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2816,10 +2831,2320 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
+        <v>45</v>
+      </c>
+      <c r="D166">
+        <v>47229</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167">
+        <v>16943</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168">
+        <v>16943</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169">
+        <v>16919</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170">
+        <v>16754</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171">
+        <v>16754</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172">
+        <v>16731</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173">
+        <v>16542</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174">
+        <v>16542</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>21</v>
+      </c>
+      <c r="D175">
+        <v>16511</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176">
+        <v>16469</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177">
+        <v>16469</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178">
+        <v>16416</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179">
+        <v>15796</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180">
+        <v>15796</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>27</v>
+      </c>
+      <c r="D181">
+        <v>15785</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182">
+        <v>15510</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>29</v>
+      </c>
+      <c r="D183">
+        <v>15510</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>30</v>
+      </c>
+      <c r="D184">
+        <v>15487</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>31</v>
+      </c>
+      <c r="D185">
+        <v>15142</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186">
+        <v>15142</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>33</v>
+      </c>
+      <c r="D187">
+        <v>15126</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>34</v>
+      </c>
+      <c r="D188">
+        <v>14928</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>35</v>
+      </c>
+      <c r="D189">
+        <v>14928</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>36</v>
+      </c>
+      <c r="D190">
+        <v>14901</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>37</v>
+      </c>
+      <c r="D191">
+        <v>14050</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" t="s">
+        <v>38</v>
+      </c>
+      <c r="D192">
+        <v>14050</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>39</v>
+      </c>
+      <c r="D193">
+        <v>14032</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
         <v>40</v>
       </c>
-      <c r="D166">
-        <v>68283</v>
+      <c r="D194">
+        <v>14118</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>41</v>
+      </c>
+      <c r="D195">
+        <v>14118</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>42</v>
+      </c>
+      <c r="D196">
+        <v>13996</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>43</v>
+      </c>
+      <c r="D197">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>44</v>
+      </c>
+      <c r="D198">
+        <v>14060</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>45</v>
+      </c>
+      <c r="D199">
+        <v>14060</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200">
+        <v>22191</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201">
+        <v>22191</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202">
+        <v>22191</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203">
+        <v>22052</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204">
+        <v>22052</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205">
+        <v>22052</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206">
+        <v>21920</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" t="s">
+        <v>20</v>
+      </c>
+      <c r="D207">
+        <v>21920</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>21</v>
+      </c>
+      <c r="D208">
+        <v>21920</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209">
+        <v>21856</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>23</v>
+      </c>
+      <c r="D210">
+        <v>21856</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>24</v>
+      </c>
+      <c r="D211">
+        <v>21856</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212">
+        <v>23146</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>26</v>
+      </c>
+      <c r="D213">
+        <v>23146</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" t="s">
+        <v>27</v>
+      </c>
+      <c r="D214">
+        <v>23146</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215">
+        <v>21867</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="s">
+        <v>29</v>
+      </c>
+      <c r="D216">
+        <v>21867</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" t="s">
+        <v>30</v>
+      </c>
+      <c r="D217">
+        <v>21867</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>31</v>
+      </c>
+      <c r="D218">
+        <v>21742</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" t="s">
+        <v>32</v>
+      </c>
+      <c r="D219">
+        <v>21742</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" t="s">
+        <v>33</v>
+      </c>
+      <c r="D220">
+        <v>21742</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" t="s">
+        <v>34</v>
+      </c>
+      <c r="D221">
+        <v>21672</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" t="s">
+        <v>35</v>
+      </c>
+      <c r="D222">
+        <v>21672</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" t="s">
+        <v>36</v>
+      </c>
+      <c r="D223">
+        <v>21672</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" t="s">
+        <v>37</v>
+      </c>
+      <c r="D224">
+        <v>18703</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" t="s">
+        <v>38</v>
+      </c>
+      <c r="D225">
+        <v>18703</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" t="s">
+        <v>39</v>
+      </c>
+      <c r="D226">
+        <v>18703</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" t="s">
+        <v>40</v>
+      </c>
+      <c r="D227">
+        <v>18594</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" t="s">
+        <v>41</v>
+      </c>
+      <c r="D228">
+        <v>18594</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" t="s">
+        <v>42</v>
+      </c>
+      <c r="D229">
+        <v>18594</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" t="s">
+        <v>43</v>
+      </c>
+      <c r="D230">
+        <v>18594</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" t="s">
+        <v>44</v>
+      </c>
+      <c r="D231">
+        <v>18594</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" t="s">
+        <v>45</v>
+      </c>
+      <c r="D232">
+        <v>18594</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233">
+        <v>31321</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234">
+        <v>31321</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235">
+        <v>31271</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" t="s">
+        <v>16</v>
+      </c>
+      <c r="D236">
+        <v>31241</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" t="s">
+        <v>17</v>
+      </c>
+      <c r="D237">
+        <v>31241</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D238">
+        <v>31202</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" t="s">
+        <v>19</v>
+      </c>
+      <c r="D239">
+        <v>30695</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" t="s">
+        <v>20</v>
+      </c>
+      <c r="D240">
+        <v>30695</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" t="s">
+        <v>21</v>
+      </c>
+      <c r="D241">
+        <v>30661</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" t="s">
+        <v>22</v>
+      </c>
+      <c r="D242">
+        <v>30806</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" t="s">
+        <v>23</v>
+      </c>
+      <c r="D243">
+        <v>30806</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" t="s">
+        <v>24</v>
+      </c>
+      <c r="D244">
+        <v>30745</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245">
+        <v>30792</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" t="s">
+        <v>26</v>
+      </c>
+      <c r="D246">
+        <v>30792</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247">
+        <v>30766</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248">
+        <v>30056</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249" t="s">
+        <v>29</v>
+      </c>
+      <c r="D249">
+        <v>30056</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" t="s">
+        <v>30</v>
+      </c>
+      <c r="D250">
+        <v>30007</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" t="s">
+        <v>31</v>
+      </c>
+      <c r="D251">
+        <v>29792</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>32</v>
+      </c>
+      <c r="D252">
+        <v>29792</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253" t="s">
+        <v>33</v>
+      </c>
+      <c r="D253">
+        <v>29745</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" t="s">
+        <v>34</v>
+      </c>
+      <c r="D254">
+        <v>29808</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" t="s">
+        <v>35</v>
+      </c>
+      <c r="D255">
+        <v>29808</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" t="s">
+        <v>36</v>
+      </c>
+      <c r="D256">
+        <v>29740</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>37</v>
+      </c>
+      <c r="D257">
+        <v>30486</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" t="s">
+        <v>38</v>
+      </c>
+      <c r="D258">
+        <v>30486</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259" t="s">
+        <v>39</v>
+      </c>
+      <c r="D259">
+        <v>30428</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" t="s">
+        <v>40</v>
+      </c>
+      <c r="D260">
+        <v>30904</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" t="s">
+        <v>41</v>
+      </c>
+      <c r="D261">
+        <v>30904</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" t="s">
+        <v>42</v>
+      </c>
+      <c r="D262">
+        <v>30579</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" t="s">
+        <v>43</v>
+      </c>
+      <c r="D263">
+        <v>30583</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" t="s">
+        <v>44</v>
+      </c>
+      <c r="D264">
+        <v>30644</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265" t="s">
+        <v>45</v>
+      </c>
+      <c r="D265">
+        <v>30646</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266">
+        <v>18285</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267" t="s">
+        <v>14</v>
+      </c>
+      <c r="D267">
+        <v>18285</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>11</v>
+      </c>
+      <c r="C268" t="s">
+        <v>15</v>
+      </c>
+      <c r="D268">
+        <v>18285</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>11</v>
+      </c>
+      <c r="C269" t="s">
+        <v>16</v>
+      </c>
+      <c r="D269">
+        <v>18285</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270" t="s">
+        <v>17</v>
+      </c>
+      <c r="D270">
+        <v>18285</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271" t="s">
+        <v>18</v>
+      </c>
+      <c r="D271">
+        <v>16454</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>11</v>
+      </c>
+      <c r="C272" t="s">
+        <v>19</v>
+      </c>
+      <c r="D272">
+        <v>18241</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>11</v>
+      </c>
+      <c r="C273" t="s">
+        <v>20</v>
+      </c>
+      <c r="D273">
+        <v>18241</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274">
+        <v>18217</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275" t="s">
+        <v>22</v>
+      </c>
+      <c r="D275">
+        <v>18431</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276" t="s">
+        <v>23</v>
+      </c>
+      <c r="D276">
+        <v>18431</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>11</v>
+      </c>
+      <c r="C277" t="s">
+        <v>24</v>
+      </c>
+      <c r="D277">
+        <v>18374</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" t="s">
+        <v>25</v>
+      </c>
+      <c r="D278">
+        <v>18630</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" t="s">
+        <v>26</v>
+      </c>
+      <c r="D279">
+        <v>18630</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" t="s">
+        <v>27</v>
+      </c>
+      <c r="D280">
+        <v>18597</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281">
+        <v>18454</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" t="s">
+        <v>29</v>
+      </c>
+      <c r="D282">
+        <v>18454</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283" t="s">
+        <v>30</v>
+      </c>
+      <c r="D283">
+        <v>18433</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284" t="s">
+        <v>31</v>
+      </c>
+      <c r="D284">
+        <v>18186</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" t="s">
+        <v>32</v>
+      </c>
+      <c r="D285">
+        <v>18186</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" t="s">
+        <v>33</v>
+      </c>
+      <c r="D286">
+        <v>18174</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287" t="s">
+        <v>34</v>
+      </c>
+      <c r="D287">
+        <v>17772</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>11</v>
+      </c>
+      <c r="C288" t="s">
+        <v>35</v>
+      </c>
+      <c r="D288">
+        <v>17772</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289" t="s">
+        <v>36</v>
+      </c>
+      <c r="D289">
+        <v>17709</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" t="s">
+        <v>37</v>
+      </c>
+      <c r="D290">
+        <v>16176</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" t="s">
+        <v>38</v>
+      </c>
+      <c r="D291">
+        <v>16176</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>11</v>
+      </c>
+      <c r="C292" t="s">
+        <v>39</v>
+      </c>
+      <c r="D292">
+        <v>16142</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293" t="s">
+        <v>40</v>
+      </c>
+      <c r="D293">
+        <v>16456</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" t="s">
+        <v>41</v>
+      </c>
+      <c r="D294">
+        <v>16456</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" t="s">
+        <v>42</v>
+      </c>
+      <c r="D295">
+        <v>16202</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>11</v>
+      </c>
+      <c r="C296" t="s">
+        <v>43</v>
+      </c>
+      <c r="D296">
+        <v>16101</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>11</v>
+      </c>
+      <c r="C297" t="s">
+        <v>44</v>
+      </c>
+      <c r="D297">
+        <v>16154</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" t="s">
+        <v>45</v>
+      </c>
+      <c r="D298">
+        <v>16159</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" t="s">
+        <v>13</v>
+      </c>
+      <c r="D299">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" t="s">
+        <v>15</v>
+      </c>
+      <c r="D301">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" t="s">
+        <v>16</v>
+      </c>
+      <c r="D302">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" t="s">
+        <v>17</v>
+      </c>
+      <c r="D303">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" t="s">
+        <v>18</v>
+      </c>
+      <c r="D304">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305" t="s">
+        <v>19</v>
+      </c>
+      <c r="D305">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" t="s">
+        <v>20</v>
+      </c>
+      <c r="D306">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" t="s">
+        <v>22</v>
+      </c>
+      <c r="D308">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" t="s">
+        <v>23</v>
+      </c>
+      <c r="D309">
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" t="s">
+        <v>24</v>
+      </c>
+      <c r="D310">
+        <v>10385</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" t="s">
+        <v>25</v>
+      </c>
+      <c r="D311">
+        <v>12516</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" t="s">
+        <v>26</v>
+      </c>
+      <c r="D312">
+        <v>12516</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" t="s">
+        <v>27</v>
+      </c>
+      <c r="D313">
+        <v>12466</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" t="s">
+        <v>28</v>
+      </c>
+      <c r="D314">
+        <v>12420</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" t="s">
+        <v>29</v>
+      </c>
+      <c r="D315">
+        <v>12420</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316" t="s">
+        <v>30</v>
+      </c>
+      <c r="D316">
+        <v>12361</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>12</v>
+      </c>
+      <c r="C317" t="s">
+        <v>31</v>
+      </c>
+      <c r="D317">
+        <v>12373</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" t="s">
+        <v>32</v>
+      </c>
+      <c r="D318">
+        <v>12373</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319" t="s">
+        <v>33</v>
+      </c>
+      <c r="D319">
+        <v>12329</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" t="s">
+        <v>34</v>
+      </c>
+      <c r="D320">
+        <v>12225</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>12</v>
+      </c>
+      <c r="C321" t="s">
+        <v>35</v>
+      </c>
+      <c r="D321">
+        <v>12225</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>12</v>
+      </c>
+      <c r="C322" t="s">
+        <v>36</v>
+      </c>
+      <c r="D322">
+        <v>12158</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>12</v>
+      </c>
+      <c r="C323" t="s">
+        <v>37</v>
+      </c>
+      <c r="D323">
+        <v>11241</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" t="s">
+        <v>38</v>
+      </c>
+      <c r="D324">
+        <v>11241</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" t="s">
+        <v>39</v>
+      </c>
+      <c r="D325">
+        <v>11175</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>12</v>
+      </c>
+      <c r="C326" t="s">
+        <v>40</v>
+      </c>
+      <c r="D326">
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" t="s">
+        <v>41</v>
+      </c>
+      <c r="D327">
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" t="s">
+        <v>42</v>
+      </c>
+      <c r="D328">
+        <v>11163</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329" t="s">
+        <v>43</v>
+      </c>
+      <c r="D329">
+        <v>11146</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330" t="s">
+        <v>44</v>
+      </c>
+      <c r="D330">
+        <v>11186</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" t="s">
+        <v>45</v>
+      </c>
+      <c r="D331">
+        <v>11189</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +5154,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2854,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>9096.879999999999</v>
@@ -2868,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>9556.76</v>
@@ -2882,7 +5207,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>11448.87</v>
@@ -2896,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>10736.02</v>
@@ -2910,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>11519.8</v>
@@ -2924,7 +5249,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>10373.48</v>
@@ -2938,7 +5263,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>10563.97</v>
@@ -2952,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>11734.78</v>
@@ -2966,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>9550.82</v>
@@ -2980,7 +5305,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>9165.309999999999</v>
@@ -2994,7 +5319,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>8822.790000000001</v>
@@ -3008,7 +5333,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>8618.75</v>
@@ -3022,7 +5347,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>9355.879999999999</v>
@@ -3036,7 +5361,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>9633.309999999999</v>
@@ -3050,7 +5375,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>8084.61</v>
@@ -3064,7 +5389,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>7347.66</v>
@@ -3078,7 +5403,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>8075.04</v>
@@ -3092,7 +5417,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>9530.66</v>
@@ -3106,7 +5431,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>9689.93</v>
@@ -3120,7 +5445,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>10511.09</v>
@@ -3134,7 +5459,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>9668.309999999999</v>
@@ -3148,7 +5473,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>10227.26</v>
@@ -3162,7 +5487,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>9217.24</v>
@@ -3176,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>9943.1</v>
@@ -3190,7 +5515,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <v>11253.08</v>
@@ -3204,7 +5529,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>9965.76</v>
@@ -3218,7 +5543,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>10500.94</v>
@@ -3232,7 +5557,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>10829.32</v>
@@ -3246,7 +5571,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D30">
         <v>10847.67</v>
@@ -3260,7 +5585,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D31">
         <v>11108.04</v>
@@ -3274,7 +5599,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>9320.02</v>
@@ -3288,7 +5613,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D33">
         <v>3248.15</v>
@@ -3302,7 +5627,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D34">
         <v>4.84</v>
@@ -3316,10 +5641,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>10268.21</v>
+        <v>9974.889999999999</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3330,10 +5655,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>10296.4</v>
+        <v>9814.07</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3344,10 +5669,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>11444.62</v>
+        <v>10501.25</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3358,10 +5683,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>10959.61</v>
+        <v>10618.09</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3372,10 +5697,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>11526.19</v>
+        <v>10879.79</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3386,10 +5711,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>10697.58</v>
+        <v>9839.99</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3400,10 +5725,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D41">
-        <v>10422.18</v>
+        <v>10451.65</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3414,10 +5739,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>10523.13</v>
+        <v>10832.83</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3428,10 +5753,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>10484.73</v>
+        <v>9863.25</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3442,10 +5767,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>11448.8</v>
+        <v>11359.43</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3456,10 +5781,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>10269.38</v>
+        <v>8873.66</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3470,10 +5795,10 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>10397.93</v>
+        <v>9740.280000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3484,10 +5809,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D47">
-        <v>10369.33</v>
+        <v>9745.940000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3498,10 +5823,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>10787.96</v>
+        <v>9761.18</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3512,10 +5837,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D49">
-        <v>9714.1</v>
+        <v>8889.99</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3526,10 +5851,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D50">
-        <v>7547.91</v>
+        <v>7191.06</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3540,10 +5865,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D51">
-        <v>8500.84</v>
+        <v>8949.32</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3554,10 +5879,10 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D52">
-        <v>9812.129999999999</v>
+        <v>10336.11</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3568,10 +5893,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D53">
-        <v>10756.58</v>
+        <v>10647.61</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3582,10 +5907,10 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D54">
-        <v>10140.8</v>
+        <v>10384.76</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3596,10 +5921,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D55">
-        <v>10644.44</v>
+        <v>10808.88</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3610,10 +5935,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D56">
-        <v>11052.66</v>
+        <v>11084.52</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3624,10 +5949,10 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D57">
-        <v>10176.43</v>
+        <v>9954.450000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3638,10 +5963,10 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D58">
-        <v>11325.78</v>
+        <v>11278.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3652,10 +5977,10 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D59">
-        <v>9636.959999999999</v>
+        <v>10761.24</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3666,10 +5991,10 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D60">
-        <v>9856.139999999999</v>
+        <v>10199.69</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3680,10 +6005,10 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D61">
-        <v>11160.45</v>
+        <v>11838.54</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3694,10 +6019,10 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D62">
-        <v>11220.63</v>
+        <v>10851.44</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3708,10 +6033,10 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D63">
-        <v>10204.17</v>
+        <v>10560.98</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3722,10 +6047,10 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D64">
-        <v>10629.32</v>
+        <v>10544.63</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3736,10 +6061,10 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D65">
-        <v>10375.57</v>
+        <v>10087.58</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3750,10 +6075,10 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D66">
-        <v>3945.12</v>
+        <v>3450.28</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3764,10 +6089,10 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D67">
-        <v>3.54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3778,10 +6103,10 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>9974.889999999999</v>
+        <v>9639.950000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3792,10 +6117,10 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69">
-        <v>9814.07</v>
+        <v>9086.24</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3806,10 +6131,10 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>10501.25</v>
+        <v>10350.44</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3820,10 +6145,10 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>10618.09</v>
+        <v>9890.639999999999</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3834,10 +6159,10 @@
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D72">
-        <v>10879.79</v>
+        <v>10325.9</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3848,10 +6173,10 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D73">
-        <v>9839.99</v>
+        <v>9184.459999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3862,10 +6187,10 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D74">
-        <v>10451.65</v>
+        <v>10251.51</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3876,10 +6201,10 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D75">
-        <v>10832.83</v>
+        <v>9967.85</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3890,10 +6215,10 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D76">
-        <v>9863.25</v>
+        <v>9551.83</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3904,10 +6229,10 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D77">
-        <v>11359.43</v>
+        <v>11592.44</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3918,10 +6243,10 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D78">
-        <v>8873.66</v>
+        <v>8144.12</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3932,10 +6257,10 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D79">
-        <v>9740.280000000001</v>
+        <v>8950.879999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3946,10 +6271,10 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D80">
-        <v>9745.940000000001</v>
+        <v>9282.690000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3960,10 +6285,10 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D81">
-        <v>9761.18</v>
+        <v>9406.33</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3974,10 +6299,10 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D82">
-        <v>8889.99</v>
+        <v>9149.030000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3988,10 +6313,10 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D83">
-        <v>7191.06</v>
+        <v>7108.56</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4002,10 +6327,10 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D84">
-        <v>8949.32</v>
+        <v>8214.85</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4016,10 +6341,10 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D85">
-        <v>10336.11</v>
+        <v>9723.549999999999</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4030,10 +6355,10 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D86">
-        <v>10647.61</v>
+        <v>10197.7</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4044,10 +6369,10 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D87">
-        <v>10384.76</v>
+        <v>11200.45</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4058,10 +6383,10 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D88">
-        <v>10808.88</v>
+        <v>10416.03</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4072,10 +6397,10 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D89">
-        <v>11084.52</v>
+        <v>10184.84</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4086,10 +6411,10 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D90">
-        <v>9954.450000000001</v>
+        <v>9475.719999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4100,10 +6425,10 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D91">
-        <v>11278.5</v>
+        <v>9804.459999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4114,10 +6439,10 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D92">
-        <v>10761.24</v>
+        <v>9462.629999999999</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4128,10 +6453,10 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D93">
-        <v>10199.69</v>
+        <v>10449.02</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4142,10 +6467,10 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D94">
-        <v>11838.54</v>
+        <v>11729.48</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4156,10 +6481,10 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D95">
-        <v>10851.44</v>
+        <v>9652.129999999999</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4170,10 +6495,10 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D96">
-        <v>10560.98</v>
+        <v>9320.99</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4184,10 +6509,10 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D97">
-        <v>10544.63</v>
+        <v>9459.65</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4198,10 +6523,10 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D98">
-        <v>10087.58</v>
+        <v>8385.07</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4212,10 +6537,10 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D99">
-        <v>3450.28</v>
+        <v>3113.14</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4226,10 +6551,10 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D100">
-        <v>6</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4240,10 +6565,10 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D101">
-        <v>9639.950000000001</v>
+        <v>9498.379999999999</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4254,10 +6579,10 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D102">
-        <v>9086.24</v>
+        <v>9221.360000000001</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4268,10 +6593,10 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D103">
-        <v>10350.44</v>
+        <v>9984.35</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4282,10 +6607,10 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D104">
-        <v>9890.639999999999</v>
+        <v>10800.07</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4296,10 +6621,10 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D105">
-        <v>10325.9</v>
+        <v>11107.24</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4310,10 +6635,10 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D106">
-        <v>9184.459999999999</v>
+        <v>10092.61</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4324,10 +6649,10 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D107">
-        <v>10251.51</v>
+        <v>10318.29</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4338,10 +6663,10 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D108">
-        <v>9967.85</v>
+        <v>10929.84</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4352,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D109">
-        <v>9551.83</v>
+        <v>10314.17</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4366,10 +6691,10 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D110">
-        <v>11592.44</v>
+        <v>10069.49</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4380,10 +6705,10 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D111">
-        <v>8144.12</v>
+        <v>9185.540000000001</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4394,10 +6719,10 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D112">
-        <v>8950.879999999999</v>
+        <v>9435.389999999999</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4408,10 +6733,10 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D113">
-        <v>9282.690000000001</v>
+        <v>9746.98</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4422,10 +6747,10 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D114">
-        <v>9406.33</v>
+        <v>9915.190000000001</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4436,10 +6761,10 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D115">
-        <v>9149.030000000001</v>
+        <v>8843.799999999999</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4450,10 +6775,10 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D116">
-        <v>7108.56</v>
+        <v>6761.72</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4464,10 +6789,10 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D117">
-        <v>8214.85</v>
+        <v>8844</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4478,10 +6803,10 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D118">
-        <v>9723.549999999999</v>
+        <v>10347.62</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4492,10 +6817,10 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D119">
-        <v>10197.7</v>
+        <v>9868.290000000001</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4506,10 +6831,10 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D120">
-        <v>11200.45</v>
+        <v>9968.440000000001</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4520,10 +6845,10 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D121">
-        <v>10416.03</v>
+        <v>10357.96</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4534,10 +6859,10 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D122">
-        <v>10184.84</v>
+        <v>10966.09</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4548,10 +6873,10 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D123">
-        <v>9475.719999999999</v>
+        <v>10034.55</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4562,10 +6887,10 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D124">
-        <v>9804.459999999999</v>
+        <v>11160.11</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4576,10 +6901,10 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D125">
-        <v>9462.629999999999</v>
+        <v>9252.01</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4590,10 +6915,10 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D126">
-        <v>10449.02</v>
+        <v>9808.629999999999</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4604,10 +6929,10 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D127">
-        <v>11729.48</v>
+        <v>10732.87</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4618,10 +6943,10 @@
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D128">
-        <v>9652.129999999999</v>
+        <v>10515.44</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4632,10 +6957,10 @@
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D129">
-        <v>9320.99</v>
+        <v>10167.89</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4646,10 +6971,10 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D130">
-        <v>9459.65</v>
+        <v>10179.32</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4660,10 +6985,10 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D131">
-        <v>8385.07</v>
+        <v>9020.91</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4674,10 +6999,10 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D132">
-        <v>3113.14</v>
+        <v>3959.67</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4688,10 +7013,10 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D133">
-        <v>3.37</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4702,10 +7027,10 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D134">
-        <v>9498.379999999999</v>
+        <v>14021.79</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4716,10 +7041,10 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D135">
-        <v>9221.360000000001</v>
+        <v>12635.49</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4730,10 +7055,10 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D136">
-        <v>9984.35</v>
+        <v>14536.39</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4744,10 +7069,10 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>10800.07</v>
+        <v>14114.51</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4758,10 +7083,10 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D138">
-        <v>11107.24</v>
+        <v>15530.05</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4772,10 +7097,10 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D139">
-        <v>10092.61</v>
+        <v>13287.7</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4786,10 +7111,10 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D140">
-        <v>10318.29</v>
+        <v>16202.22</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4800,10 +7125,10 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D141">
-        <v>10929.84</v>
+        <v>15214.81</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4814,10 +7139,10 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D142">
-        <v>10314.17</v>
+        <v>14715.13</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4828,10 +7153,10 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D143">
-        <v>10069.49</v>
+        <v>16887.92</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4842,10 +7167,10 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D144">
-        <v>9185.540000000001</v>
+        <v>15415.52</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4856,10 +7181,10 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D145">
-        <v>9435.389999999999</v>
+        <v>15741.29</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4870,10 +7195,10 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D146">
-        <v>9746.98</v>
+        <v>15627.33</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4884,10 +7209,10 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D147">
-        <v>9915.190000000001</v>
+        <v>14815.8</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4898,10 +7223,10 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D148">
-        <v>8843.799999999999</v>
+        <v>13292.69</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4912,10 +7237,10 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D149">
-        <v>6761.72</v>
+        <v>10671.43</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4926,10 +7251,10 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D150">
-        <v>8844</v>
+        <v>11403.96</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4940,10 +7265,10 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D151">
-        <v>10347.62</v>
+        <v>13757.35</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4954,10 +7279,10 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D152">
-        <v>9868.290000000001</v>
+        <v>14882.35</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4968,10 +7293,10 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D153">
-        <v>9968.440000000001</v>
+        <v>14546.82</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4982,10 +7307,10 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D154">
-        <v>10357.96</v>
+        <v>15431.34</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4996,10 +7321,10 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D155">
-        <v>10966.09</v>
+        <v>16759.85</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5010,10 +7335,10 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D156">
-        <v>10034.55</v>
+        <v>14855.42</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5024,10 +7349,10 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D157">
-        <v>11160.11</v>
+        <v>15629.53</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5038,10 +7363,10 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D158">
-        <v>9252.01</v>
+        <v>15327.64</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5052,10 +7377,10 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D159">
-        <v>9808.629999999999</v>
+        <v>14465.69</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5066,10 +7391,10 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D160">
-        <v>10732.87</v>
+        <v>18036.07</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5080,10 +7405,10 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D161">
-        <v>10515.44</v>
+        <v>17132.04</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5094,10 +7419,10 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D162">
-        <v>10167.89</v>
+        <v>16212.28</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5108,10 +7433,10 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D163">
-        <v>10179.32</v>
+        <v>16805.69</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5122,10 +7447,10 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D164">
-        <v>9020.91</v>
+        <v>15102.09</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5136,10 +7461,10 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D165">
-        <v>3959.67</v>
+        <v>5272.93</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5150,10 +7475,2320 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
+        <v>45</v>
+      </c>
+      <c r="D166">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167">
+        <v>11334.64</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168">
+        <v>10330.15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169">
+        <v>11854.02</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170">
+        <v>11280.88</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171">
+        <v>11819.42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172">
+        <v>10687.26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173">
+        <v>11499.46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174">
+        <v>12532.01</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>21</v>
+      </c>
+      <c r="D175">
+        <v>11287.55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176">
+        <v>13294.62</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177">
+        <v>11856.57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178">
+        <v>11407.33</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179">
+        <v>12507.51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180">
+        <v>11392.41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>27</v>
+      </c>
+      <c r="D181">
+        <v>10997.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182">
+        <v>7532.1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>29</v>
+      </c>
+      <c r="D183">
+        <v>9518.110000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>30</v>
+      </c>
+      <c r="D184">
+        <v>11409.53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>31</v>
+      </c>
+      <c r="D185">
+        <v>12046.12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186">
+        <v>11582.42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>33</v>
+      </c>
+      <c r="D187">
+        <v>11478.68</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>34</v>
+      </c>
+      <c r="D188">
+        <v>12696.07</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>35</v>
+      </c>
+      <c r="D189">
+        <v>11567.33</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>36</v>
+      </c>
+      <c r="D190">
+        <v>11653.51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>37</v>
+      </c>
+      <c r="D191">
+        <v>11637.36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" t="s">
+        <v>38</v>
+      </c>
+      <c r="D192">
+        <v>10762.71</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>39</v>
+      </c>
+      <c r="D193">
+        <v>12408.18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
         <v>40</v>
       </c>
-      <c r="D166">
-        <v>4.56</v>
+      <c r="D194">
+        <v>12196.21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>41</v>
+      </c>
+      <c r="D195">
+        <v>11542.51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>42</v>
+      </c>
+      <c r="D196">
+        <v>11815.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>43</v>
+      </c>
+      <c r="D197">
+        <v>10934.43</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>44</v>
+      </c>
+      <c r="D198">
+        <v>4046.75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>45</v>
+      </c>
+      <c r="D199">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200">
+        <v>13016.74</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201">
+        <v>12807.75</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202">
+        <v>14421.78</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203">
+        <v>14535.06</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204">
+        <v>14537.06</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205">
+        <v>12498.49</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206">
+        <v>14196.35</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" t="s">
+        <v>20</v>
+      </c>
+      <c r="D207">
+        <v>14596.52</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>21</v>
+      </c>
+      <c r="D208">
+        <v>12902.35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209">
+        <v>15169.16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>23</v>
+      </c>
+      <c r="D210">
+        <v>13496.89</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>24</v>
+      </c>
+      <c r="D211">
+        <v>13891.62</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212">
+        <v>12967.01</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>26</v>
+      </c>
+      <c r="D213">
+        <v>12480.81</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" t="s">
+        <v>27</v>
+      </c>
+      <c r="D214">
+        <v>11778.63</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215">
+        <v>8902.9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="s">
+        <v>29</v>
+      </c>
+      <c r="D216">
+        <v>10849.39</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" t="s">
+        <v>30</v>
+      </c>
+      <c r="D217">
+        <v>12634.99</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>31</v>
+      </c>
+      <c r="D218">
+        <v>13165.49</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" t="s">
+        <v>32</v>
+      </c>
+      <c r="D219">
+        <v>13142.56</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" t="s">
+        <v>33</v>
+      </c>
+      <c r="D220">
+        <v>13755.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" t="s">
+        <v>34</v>
+      </c>
+      <c r="D221">
+        <v>15289.15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" t="s">
+        <v>35</v>
+      </c>
+      <c r="D222">
+        <v>12945.94</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" t="s">
+        <v>36</v>
+      </c>
+      <c r="D223">
+        <v>13862.42</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" t="s">
+        <v>37</v>
+      </c>
+      <c r="D224">
+        <v>12805.64</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" t="s">
+        <v>38</v>
+      </c>
+      <c r="D225">
+        <v>12668.27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" t="s">
+        <v>39</v>
+      </c>
+      <c r="D226">
+        <v>15396.98</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" t="s">
+        <v>40</v>
+      </c>
+      <c r="D227">
+        <v>14993.01</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" t="s">
+        <v>41</v>
+      </c>
+      <c r="D228">
+        <v>13677.53</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" t="s">
+        <v>42</v>
+      </c>
+      <c r="D229">
+        <v>14648.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" t="s">
+        <v>43</v>
+      </c>
+      <c r="D230">
+        <v>13027.56</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" t="s">
+        <v>44</v>
+      </c>
+      <c r="D231">
+        <v>4498.06</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" t="s">
+        <v>45</v>
+      </c>
+      <c r="D232">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233">
+        <v>13118.23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234">
+        <v>12972.8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235">
+        <v>13716.35</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" t="s">
+        <v>16</v>
+      </c>
+      <c r="D236">
+        <v>14886.07</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" t="s">
+        <v>17</v>
+      </c>
+      <c r="D237">
+        <v>14679.96</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D238">
+        <v>13369.77</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" t="s">
+        <v>19</v>
+      </c>
+      <c r="D239">
+        <v>14098.21</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" t="s">
+        <v>20</v>
+      </c>
+      <c r="D240">
+        <v>14311.46</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" t="s">
+        <v>21</v>
+      </c>
+      <c r="D241">
+        <v>13272.48</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" t="s">
+        <v>22</v>
+      </c>
+      <c r="D242">
+        <v>14942.19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" t="s">
+        <v>23</v>
+      </c>
+      <c r="D243">
+        <v>13887.56</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" t="s">
+        <v>24</v>
+      </c>
+      <c r="D244">
+        <v>13467.65</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245">
+        <v>13725.57</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" t="s">
+        <v>26</v>
+      </c>
+      <c r="D246">
+        <v>13568.99</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247">
+        <v>11639.82</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248">
+        <v>8746.440000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249" t="s">
+        <v>29</v>
+      </c>
+      <c r="D249">
+        <v>11539.51</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" t="s">
+        <v>30</v>
+      </c>
+      <c r="D250">
+        <v>13616.99</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" t="s">
+        <v>31</v>
+      </c>
+      <c r="D251">
+        <v>14591.53</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>32</v>
+      </c>
+      <c r="D252">
+        <v>14587.98</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253" t="s">
+        <v>33</v>
+      </c>
+      <c r="D253">
+        <v>14895.38</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" t="s">
+        <v>34</v>
+      </c>
+      <c r="D254">
+        <v>15917.65</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" t="s">
+        <v>35</v>
+      </c>
+      <c r="D255">
+        <v>14867.17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" t="s">
+        <v>36</v>
+      </c>
+      <c r="D256">
+        <v>15501.57</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>37</v>
+      </c>
+      <c r="D257">
+        <v>13617.07</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" t="s">
+        <v>38</v>
+      </c>
+      <c r="D258">
+        <v>13058.81</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259" t="s">
+        <v>39</v>
+      </c>
+      <c r="D259">
+        <v>14712.96</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" t="s">
+        <v>40</v>
+      </c>
+      <c r="D260">
+        <v>15664.3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" t="s">
+        <v>41</v>
+      </c>
+      <c r="D261">
+        <v>14230.83</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" t="s">
+        <v>42</v>
+      </c>
+      <c r="D262">
+        <v>14494.8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" t="s">
+        <v>43</v>
+      </c>
+      <c r="D263">
+        <v>13046.35</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" t="s">
+        <v>44</v>
+      </c>
+      <c r="D264">
+        <v>4677.93</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265" t="s">
+        <v>45</v>
+      </c>
+      <c r="D265">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266">
+        <v>10840.23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267" t="s">
+        <v>14</v>
+      </c>
+      <c r="D267">
+        <v>10681.41</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>11</v>
+      </c>
+      <c r="C268" t="s">
+        <v>15</v>
+      </c>
+      <c r="D268">
+        <v>11656.58</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>11</v>
+      </c>
+      <c r="C269" t="s">
+        <v>16</v>
+      </c>
+      <c r="D269">
+        <v>12355.09</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270" t="s">
+        <v>17</v>
+      </c>
+      <c r="D270">
+        <v>11814.2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271" t="s">
+        <v>18</v>
+      </c>
+      <c r="D271">
+        <v>10377.16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>11</v>
+      </c>
+      <c r="C272" t="s">
+        <v>19</v>
+      </c>
+      <c r="D272">
+        <v>12859.57</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>11</v>
+      </c>
+      <c r="C273" t="s">
+        <v>20</v>
+      </c>
+      <c r="D273">
+        <v>13391.93</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274">
+        <v>12246.64</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275" t="s">
+        <v>22</v>
+      </c>
+      <c r="D275">
+        <v>13497.86</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276" t="s">
+        <v>23</v>
+      </c>
+      <c r="D276">
+        <v>12414.54</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>11</v>
+      </c>
+      <c r="C277" t="s">
+        <v>24</v>
+      </c>
+      <c r="D277">
+        <v>12074.28</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" t="s">
+        <v>25</v>
+      </c>
+      <c r="D278">
+        <v>13371.32</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" t="s">
+        <v>26</v>
+      </c>
+      <c r="D279">
+        <v>12728.6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" t="s">
+        <v>27</v>
+      </c>
+      <c r="D280">
+        <v>11493.52</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281">
+        <v>9451.67</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" t="s">
+        <v>29</v>
+      </c>
+      <c r="D282">
+        <v>10239.57</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283" t="s">
+        <v>30</v>
+      </c>
+      <c r="D283">
+        <v>11138.01</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284" t="s">
+        <v>31</v>
+      </c>
+      <c r="D284">
+        <v>12991.28</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" t="s">
+        <v>32</v>
+      </c>
+      <c r="D285">
+        <v>12777.23</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" t="s">
+        <v>33</v>
+      </c>
+      <c r="D286">
+        <v>12379.71</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287" t="s">
+        <v>34</v>
+      </c>
+      <c r="D287">
+        <v>12933.04</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>11</v>
+      </c>
+      <c r="C288" t="s">
+        <v>35</v>
+      </c>
+      <c r="D288">
+        <v>12557.47</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289" t="s">
+        <v>36</v>
+      </c>
+      <c r="D289">
+        <v>13922.84</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" t="s">
+        <v>37</v>
+      </c>
+      <c r="D290">
+        <v>12855.04</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" t="s">
+        <v>38</v>
+      </c>
+      <c r="D291">
+        <v>11684.04</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>11</v>
+      </c>
+      <c r="C292" t="s">
+        <v>39</v>
+      </c>
+      <c r="D292">
+        <v>13413.66</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293" t="s">
+        <v>40</v>
+      </c>
+      <c r="D293">
+        <v>12622.13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" t="s">
+        <v>41</v>
+      </c>
+      <c r="D294">
+        <v>12437.63</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" t="s">
+        <v>42</v>
+      </c>
+      <c r="D295">
+        <v>11950.41</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>11</v>
+      </c>
+      <c r="C296" t="s">
+        <v>43</v>
+      </c>
+      <c r="D296">
+        <v>11697.31</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>11</v>
+      </c>
+      <c r="C297" t="s">
+        <v>44</v>
+      </c>
+      <c r="D297">
+        <v>4005.66</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" t="s">
+        <v>45</v>
+      </c>
+      <c r="D298">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" t="s">
+        <v>13</v>
+      </c>
+      <c r="D299">
+        <v>12727.37</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300">
+        <v>11479.53</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" t="s">
+        <v>15</v>
+      </c>
+      <c r="D301">
+        <v>13225.61</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" t="s">
+        <v>16</v>
+      </c>
+      <c r="D302">
+        <v>13387.75</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" t="s">
+        <v>17</v>
+      </c>
+      <c r="D303">
+        <v>13327.35</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" t="s">
+        <v>18</v>
+      </c>
+      <c r="D304">
+        <v>12728.12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305" t="s">
+        <v>19</v>
+      </c>
+      <c r="D305">
+        <v>12995.57</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" t="s">
+        <v>20</v>
+      </c>
+      <c r="D306">
+        <v>12932.13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307">
+        <v>12664.26</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" t="s">
+        <v>22</v>
+      </c>
+      <c r="D308">
+        <v>13935.03</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" t="s">
+        <v>23</v>
+      </c>
+      <c r="D309">
+        <v>12556.35</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" t="s">
+        <v>24</v>
+      </c>
+      <c r="D310">
+        <v>12901.57</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" t="s">
+        <v>25</v>
+      </c>
+      <c r="D311">
+        <v>12495.72</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" t="s">
+        <v>26</v>
+      </c>
+      <c r="D312">
+        <v>14321.7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" t="s">
+        <v>27</v>
+      </c>
+      <c r="D313">
+        <v>11895.97</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" t="s">
+        <v>28</v>
+      </c>
+      <c r="D314">
+        <v>9312.48</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" t="s">
+        <v>29</v>
+      </c>
+      <c r="D315">
+        <v>10095.86</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316" t="s">
+        <v>30</v>
+      </c>
+      <c r="D316">
+        <v>12143.72</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>12</v>
+      </c>
+      <c r="C317" t="s">
+        <v>31</v>
+      </c>
+      <c r="D317">
+        <v>12446.71</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" t="s">
+        <v>32</v>
+      </c>
+      <c r="D318">
+        <v>12897.78</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319" t="s">
+        <v>33</v>
+      </c>
+      <c r="D319">
+        <v>13211.08</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" t="s">
+        <v>34</v>
+      </c>
+      <c r="D320">
+        <v>14669.82</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>12</v>
+      </c>
+      <c r="C321" t="s">
+        <v>35</v>
+      </c>
+      <c r="D321">
+        <v>13808.39</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>12</v>
+      </c>
+      <c r="C322" t="s">
+        <v>36</v>
+      </c>
+      <c r="D322">
+        <v>15853.62</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>12</v>
+      </c>
+      <c r="C323" t="s">
+        <v>37</v>
+      </c>
+      <c r="D323">
+        <v>13353.87</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" t="s">
+        <v>38</v>
+      </c>
+      <c r="D324">
+        <v>12431.74</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" t="s">
+        <v>39</v>
+      </c>
+      <c r="D325">
+        <v>14615.32</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>12</v>
+      </c>
+      <c r="C326" t="s">
+        <v>40</v>
+      </c>
+      <c r="D326">
+        <v>14651.25</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" t="s">
+        <v>41</v>
+      </c>
+      <c r="D327">
+        <v>13750.6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" t="s">
+        <v>42</v>
+      </c>
+      <c r="D328">
+        <v>14163.48</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329" t="s">
+        <v>43</v>
+      </c>
+      <c r="D329">
+        <v>13119.72</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330" t="s">
+        <v>44</v>
+      </c>
+      <c r="D330">
+        <v>4953.39</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" t="s">
+        <v>45</v>
+      </c>
+      <c r="D331">
+        <v>6.33</v>
       </c>
     </row>
   </sheetData>
